--- a/APM files/127811189/Exports Results/127811189 EXPORT Compensation Cloud Export_result.xlsx
+++ b/APM files/127811189/Exports Results/127811189 EXPORT Compensation Cloud Export_result.xlsx
@@ -237,22 +237,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>105101099_M_S_M_0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>610916061</t>
+          <t>610944439</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -262,10 +262,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="M2"/>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2"/>
@@ -279,21 +283,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S2"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>104934871</t>
+          <t>105101099</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hermosa Casa Vista al Lago en Avándaro</t>
+          <t>Casita Panadería Cozy House in San Simón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -313,22 +313,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>104934871</t>
+          <t>105101099</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Agency</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Agency</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>610908513</t>
+          <t>610916061</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -352,7 +352,7 @@
       <c r="P3"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -369,12 +369,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>104938213</t>
+          <t>104934871</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Casa La Borrega Luxury and Comfort </t>
+          <t>Hermosa Casa Vista al Lago en Avándaro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -394,27 +394,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>104938213</t>
+          <t>104934871</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104934871_M_S_M_0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>610908607</t>
+          <t>610944444</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -424,10 +424,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="M4"/>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4"/>
@@ -441,21 +445,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S4"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>104224672</t>
+          <t>104934871</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Casa Manglar Riviera Maya</t>
+          <t>Hermosa Casa Vista al Lago en Avándaro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -475,22 +475,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>104224672</t>
+          <t>104934871</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Agency</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Agency</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>610890827</t>
+          <t>610908513</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -514,7 +514,7 @@
       <c r="P5"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>103557454</t>
+          <t>104938213</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hacienda de Playa, Condominio Frente al Mar</t>
+          <t xml:space="preserve">Casa La Borrega Luxury and Comfort </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>103557454</t>
+          <t>104938213</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>103557454_M_S_M_0</t>
+          <t>104938213_M_S_M_0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>610890156</t>
+          <t>610944446</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -599,7 +599,7 @@
       <c r="P6"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -612,12 +612,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>103557454</t>
+          <t>104938213</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hacienda de Playa, Condominio Frente al Mar</t>
+          <t xml:space="preserve">Casa La Borrega Luxury and Comfort </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>103557454</t>
+          <t>104938213</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>610866339</t>
+          <t>610908607</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="M7"/>
@@ -693,12 +693,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>104142320</t>
+          <t>104224672</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Villa Kupuri 27 Spectacular View</t>
+          <t>Casa Manglar Riviera Maya</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,27 +718,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>104142320</t>
+          <t>104224672</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104224672_M_S_M_0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>610889067</t>
+          <t>610944441</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -748,10 +748,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="M8"/>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8"/>
@@ -765,21 +769,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S8"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>104074580</t>
+          <t>104224672</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Punta del Cielo A Tranquil Retreat </t>
+          <t>Casa Manglar Riviera Maya</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -799,22 +799,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>104074580</t>
+          <t>104224672</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Agency</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Agency</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>610886172</t>
+          <t>610890827</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -838,7 +838,7 @@
       <c r="P9"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -855,12 +855,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>104054645</t>
+          <t>103557454</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brisas del Pacifico A Hidden Gem</t>
+          <t>Hacienda de Playa, Condominio Frente al Mar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -880,27 +880,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>104054645</t>
+          <t>103557454</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>103557454_M_S_M_0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>610885431</t>
+          <t>610890156</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -910,10 +910,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="M10"/>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10"/>
@@ -927,21 +931,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S10"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>104045668</t>
+          <t>103557454</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Penthouse Vistamar Serenity and Luxury</t>
+          <t>Hacienda de Playa, Condominio Frente al Mar</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>104045668</t>
+          <t>103557454</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>Agency</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Agency</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>610885171</t>
+          <t>610866339</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="M11"/>
@@ -1000,7 +1000,7 @@
       <c r="P11"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1017,12 +1017,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>103950019</t>
+          <t>104142320</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vista Al Nevado</t>
+          <t>Villa Kupuri 27 Spectacular View</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1042,27 +1042,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>103950019</t>
+          <t>104142320</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104142320_M_S_M_0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>610881354</t>
+          <t>610944442</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1072,16 +1072,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="M12"/>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1089,21 +1093,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S12"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>103925502</t>
+          <t>104142320</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mar de Cocos Beach Front Villas</t>
+          <t>Villa Kupuri 27 Spectacular View</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>103925502</t>
+          <t>104142320</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1133,17 +1133,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>103925502_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>610890154</t>
+          <t>610889067</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1153,20 +1153,16 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.165</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="M13"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1174,17 +1170,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S13"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>103925502</t>
+          <t>104074580</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mar de Cocos Beach Front Villas</t>
+          <t xml:space="preserve">Punta del Cielo A Tranquil Retreat </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>103925502</t>
+          <t>104074580</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1214,17 +1214,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104074580_M_S_M_0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>610880115</t>
+          <t>610944440</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1237,40 +1237,40 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M14"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14"/>
       <c r="Q14" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S14"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>103465399</t>
+          <t>104074580</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Esencia Villas</t>
+          <t xml:space="preserve">Punta del Cielo A Tranquil Retreat </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EQCMyAllocator</t>
+          <t>EQCGUESTY</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>103465399</t>
+          <t>104074580</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1295,17 +1295,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>103465399_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>610890157</t>
+          <t>610886172</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1315,20 +1315,16 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.165</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="M15"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1336,22 +1332,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S15"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>103465399</t>
+          <t>104054645</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Esencia Villas</t>
+          <t>Brisas del Pacifico A Hidden Gem</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EQCMyAllocator</t>
+          <t>EQCGUESTY</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>103465399</t>
+          <t>104054645</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1376,17 +1376,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104054645_M_S_M_0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>610862323</t>
+          <t>610944445</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1399,35 +1399,35 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M16"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16"/>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S16"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>103556862</t>
+          <t>104054645</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Encanto exclusive condo private pool</t>
+          <t>Brisas del Pacifico A Hidden Gem</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>103556862</t>
+          <t>104054645</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1457,17 +1457,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>103556862_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>610890149</t>
+          <t>610885431</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1477,20 +1477,16 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.165</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="M17"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1498,17 +1494,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S17"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>103556862</t>
+          <t>104045668</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Encanto exclusive condo private pool</t>
+          <t>Penthouse Vistamar Serenity and Luxury</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>103556862</t>
+          <t>104045668</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1538,17 +1538,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104045668_M_S_M_0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>610867175</t>
+          <t>610944443</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1561,35 +1561,35 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M18"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18"/>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S18"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>102627849</t>
+          <t>104045668</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Casa Socampo Con alberca y paddle</t>
+          <t>Penthouse Vistamar Serenity and Luxury</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>102627849</t>
+          <t>104045668</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1619,17 +1619,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Agency_M_042224_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>610892050</t>
+          <t>610885171</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1639,20 +1639,16 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.165</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="M19"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1669,12 +1665,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>102627849</t>
+          <t>103950019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Casa Socampo Con alberca y paddle</t>
+          <t>Vista Al Nevado</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1694,7 +1690,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>102627849</t>
+          <t>103950019</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1704,17 +1700,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>103950019_M_S_M_0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>610838530</t>
+          <t>610944447</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1727,35 +1723,35 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M20"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20"/>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S20"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>102660614</t>
+          <t>103950019</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Casa con amplia terraza y jacuzzi</t>
+          <t>Vista Al Nevado</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1775,7 +1771,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>102660614</t>
+          <t>103950019</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1785,17 +1781,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>102660614_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>610890155</t>
+          <t>610881354</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1805,20 +1801,16 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.165</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="M21"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -1826,17 +1818,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S21"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>102660614</t>
+          <t>103925502</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Casa con amplia terraza y jacuzzi</t>
+          <t>Mar de Cocos Beach Front Villas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1856,7 +1852,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>102660614</t>
+          <t>103925502</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1866,17 +1862,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>103925502_M_S_M_0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>610839374</t>
+          <t>610890154</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1889,35 +1885,35 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M22"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22"/>
       <c r="Q22" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S22"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>103925502</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Los Panchos</t>
+          <t>Mar de Cocos Beach Front Villas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1937,7 +1933,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>103925502</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1947,17 +1943,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>102379022_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>610890148</t>
+          <t>610880115</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1970,17 +1966,13 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M23"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -1988,22 +1980,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S23"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>103465399</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Los Panchos</t>
+          <t>Esencia Villas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EQCGUESTY</t>
+          <t>EQCMyAllocator</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2018,7 +2014,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>103465399</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2028,17 +2024,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>103465399_M_S_M_0</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>610827660</t>
+          <t>610890157</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2051,40 +2047,40 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M24"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24"/>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S24"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>103465399</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Los Panchos</t>
+          <t>Esencia Villas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EQCGUESTY</t>
+          <t>EQCMyAllocator</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2099,7 +2095,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>103465399</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2109,17 +2105,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>102379022_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>610890148</t>
+          <t>610862323</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2132,17 +2128,13 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M25"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2150,17 +2142,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S25"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>103556862</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Los Panchos</t>
+          <t>El Encanto exclusive condo private pool</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2180,7 +2176,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>103556862</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2190,17 +2186,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>103556862_M_S_M_0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>610827660</t>
+          <t>610890149</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2213,35 +2209,35 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M26"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26"/>
       <c r="Q26" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S26"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>102017604</t>
+          <t>103556862</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Casa Mangata - Luxurious Beachfront PH</t>
+          <t>El Encanto exclusive condo private pool</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2261,7 +2257,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>102017604</t>
+          <t>103556862</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2271,17 +2267,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>102017604_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>610890150</t>
+          <t>610867175</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2294,17 +2290,13 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M27"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2312,17 +2304,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S27"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>102017604</t>
+          <t>102627849</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Casa Mangata - Luxurious Beachfront PH</t>
+          <t>Casa Socampo Con alberca y paddle</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2342,7 +2338,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>102017604</t>
+          <t>102627849</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2352,17 +2348,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Agency_M_042224_0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>610814478</t>
+          <t>610892050</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2375,13 +2371,17 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M28"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>97052812</t>
+          <t>102627849</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Choapan 28 - Lux Apartments in Condesa</t>
+          <t>Casa Socampo Con alberca y paddle</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>97052812</t>
+          <t>102627849</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2433,17 +2433,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2023_EC_18</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>610678397</t>
+          <t>610838530</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2453,20 +2453,16 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M29"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2483,12 +2479,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>97052812</t>
+          <t>102660614</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Choapan 28 - Lux Apartments in Condesa</t>
+          <t>Casa con amplia terraza y jacuzzi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2508,7 +2504,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>97052812</t>
+          <t>102660614</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2518,17 +2514,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2023_HC_18</t>
+          <t>102660614_M_S_M_0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>610650569</t>
+          <t>610890155</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2538,16 +2534,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="M30"/>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2560,12 +2560,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>87410857</t>
+          <t>102660614</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Agradable Hostal Sobre  Centro de Valle</t>
+          <t>Casa con amplia terraza y jacuzzi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>87410857</t>
+          <t>102660614</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2595,17 +2595,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Agency_M_042224_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>610892047</t>
+          <t>610839374</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2618,17 +2618,13 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M31"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2645,12 +2641,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>87410857</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Agradable Hostal Sobre  Centro de Valle</t>
+          <t>Los Panchos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2670,7 +2666,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>87410857</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2680,17 +2676,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>102379022_M_S_M_0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>610330577</t>
+          <t>610890148</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2703,35 +2699,35 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M32"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32"/>
       <c r="Q32" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S32"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>83458011</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Moderna Villa con Hermosa Vista al Lago</t>
+          <t>Los Panchos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2751,7 +2747,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>83458011</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2761,17 +2757,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>83458011_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>610890151</t>
+          <t>610827660</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2784,11 +2780,7 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M33"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33"/>
@@ -2802,17 +2794,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S33"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>83458011</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Moderna Villa con Hermosa Vista al Lago</t>
+          <t>Los Panchos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2832,7 +2828,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>83458011</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2842,17 +2838,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>102379022_M_S_M_0</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>610265974</t>
+          <t>610890148</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2865,40 +2861,40 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M34"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34"/>
       <c r="Q34" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S34"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>79713237</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Céntrico Equipado Depto a pasos Reforma</t>
+          <t>Los Panchos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EQCGuesty</t>
+          <t>EQCGUESTY</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2913,7 +2909,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>79713237</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2923,17 +2919,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>79713237_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>610890153</t>
+          <t>610827660</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2946,17 +2942,13 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M35"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -2964,22 +2956,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S35"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>79713237</t>
+          <t>102017604</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Céntrico Equipado Depto a pasos Reforma</t>
+          <t>Casa Mangata - Luxurious Beachfront PH</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EQCGuesty</t>
+          <t>EQCGUESTY</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2994,7 +2990,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>79713237</t>
+          <t>102017604</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3004,17 +3000,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>102017604_M_S_M_0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>610232453</t>
+          <t>610890150</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3027,40 +3023,40 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M36"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36"/>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S36"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>78791424</t>
+          <t>102017604</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comfort Apartment With Terrace at Condesa</t>
+          <t>Casa Mangata - Luxurious Beachfront PH</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EQCGuesty</t>
+          <t>EQCGUESTY</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3075,7 +3071,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>78791424</t>
+          <t>102017604</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3085,17 +3081,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>78791424_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>610890158</t>
+          <t>610814478</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3108,11 +3104,7 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M37"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37"/>
@@ -3126,22 +3118,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S37"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>78791424</t>
+          <t>97052812</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Comfort Apartment With Terrace at Condesa</t>
+          <t>Choapan 28 - Lux Apartments in Condesa</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EQCGuesty</t>
+          <t>EQCGUESTY</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3156,7 +3152,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>78791424</t>
+          <t>97052812</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3166,17 +3162,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>2023_EC_18</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>610230447</t>
+          <t>610678397</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3186,16 +3182,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.165</t>
-        </is>
-      </c>
-      <c r="M38"/>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>78379166</t>
+          <t>97052812</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Céntrico Loft a Pasos de Paseo Reforma</t>
+          <t>Choapan 28 - Lux Apartments in Condesa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>78379166</t>
+          <t>97052812</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3247,17 +3247,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>78379166_M_S_M_0</t>
+          <t>2023_HC_18</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>610890159</t>
+          <t>610650569</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3267,20 +3267,16 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.165</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="M39"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3293,12 +3289,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>78379166</t>
+          <t>87410857</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Céntrico Loft a Pasos de Paseo Reforma</t>
+          <t>Agradable Hostal Sobre  Centro de Valle</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3318,7 +3314,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>78379166</t>
+          <t>87410857</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3328,17 +3324,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Agency_M_042224_0</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>610218635</t>
+          <t>610892047</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3351,13 +3347,17 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M40"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3374,12 +3374,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>78137021</t>
+          <t>87410857</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Equipped One Bedroom Beach Front Condo</t>
+          <t>Agradable Hostal Sobre  Centro de Valle</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>78137021</t>
+          <t>87410857</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3409,17 +3409,17 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>78137021_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>610890161</t>
+          <t>610330577</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3432,11 +3432,7 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M41"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41"/>
@@ -3450,17 +3446,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S41"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>78137021</t>
+          <t>83458011</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Equipped One Bedroom Beach Front Condo</t>
+          <t>Moderna Villa con Hermosa Vista al Lago</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>78137021</t>
+          <t>83458011</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3490,17 +3490,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>83458011_M_S_M_0</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>610212041</t>
+          <t>610890151</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3513,7 +3513,11 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M42"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42"/>
@@ -3527,26 +3531,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S42"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>78135583</t>
+          <t>83458011</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Three Bedroom Condo Steps From the Beach</t>
+          <t>Moderna Villa con Hermosa Vista al Lago</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EQCGuesty</t>
+          <t>EQCGUESTY</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>78135583</t>
+          <t>83458011</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3571,17 +3571,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>78135583_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>610890160</t>
+          <t>610265974</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3594,11 +3594,7 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M43"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43"/>
@@ -3612,17 +3608,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S43"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>78135583</t>
+          <t>79713237</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Three Bedroom Condo Steps From the Beach</t>
+          <t>Céntrico Equipado Depto a pasos Reforma</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>78135583</t>
+          <t>79713237</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3652,17 +3652,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>79713237_M_S_M_0</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>610211982</t>
+          <t>610890153</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3675,35 +3675,35 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M44"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44"/>
       <c r="Q44" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S44"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>76704064</t>
+          <t>79713237</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Enchanting 4 Bedroom PH With Beach Front</t>
+          <t>Céntrico Equipado Depto a pasos Reforma</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>76704064</t>
+          <t>79713237</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3733,17 +3733,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>76704064_M_S_M_0</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>610890162</t>
+          <t>610232453</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3756,11 +3756,7 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M45"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45"/>
@@ -3774,17 +3770,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S45"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>76704064</t>
+          <t>78791424</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Enchanting 4 Bedroom PH With Beach Front</t>
+          <t>Comfort Apartment With Terrace at Condesa</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>76704064</t>
+          <t>78791424</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3814,17 +3814,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>78791424_M_S_M_0</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>610186586</t>
+          <t>610890158</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3837,7 +3837,11 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M46"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46"/>
@@ -3851,7 +3855,732 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="S46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>78791424</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Comfort Apartment With Terrace at Condesa</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>EQCGuesty</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>78791424</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Agency</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>610230447</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Hotel Collect</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M47"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>78379166</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Céntrico Loft a Pasos de Paseo Reforma</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>EQCGUESTY</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>78379166</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>78379166_M_S_M_0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>610890159</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Expedia Collect</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>78379166</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Céntrico Loft a Pasos de Paseo Reforma</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EQCGUESTY</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>78379166</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Agency</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>610218635</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Hotel Collect</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M49"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>78137021</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Equipped One Bedroom Beach Front Condo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>EQCGUESTY</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>78137021</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>78137021_M_S_M_0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>610890161</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Expedia Collect</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>78137021</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Equipped One Bedroom Beach Front Condo</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EQCGUESTY</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>78137021</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Agency</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>610212041</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Hotel Collect</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M51"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>78135583</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Three Bedroom Condo Steps From the Beach</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>EQCGuesty</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>78135583</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>78135583_M_S_M_0</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>610890160</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Expedia Collect</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>78135583</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Three Bedroom Condo Steps From the Beach</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>EQCGuesty</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>78135583</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Agency</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>610211982</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Hotel Collect</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M53"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>76704064</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Enchanting 4 Bedroom PH With Beach Front</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>EQCGuesty</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>76704064</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>76704064_M_S_M_0</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>610890162</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Expedia Collect</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>76704064</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Enchanting 4 Bedroom PH With Beach Front</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>EQCGuesty</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>76704064</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Agency</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>610186586</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Hotel Collect</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M55"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
         <is>
           <t>Standalone</t>
         </is>
@@ -3957,12 +4686,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>105101099_M_S_M_0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>610916061</t>
+          <t>610944439</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3987,7 +4716,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4019,12 +4748,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104934871_M_S_M_0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>610908513</t>
+          <t>610944444</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4049,7 +4778,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4081,12 +4810,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104934871_M_S_M_0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>610908513</t>
+          <t>610944444</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4111,7 +4840,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4143,12 +4872,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104938213_M_S_M_0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>610908607</t>
+          <t>610944446</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4173,7 +4902,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4205,12 +4934,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104938213_M_S_M_0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>610908607</t>
+          <t>610944446</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4235,7 +4964,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -4267,12 +4996,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104224672_M_S_M_0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>610890827</t>
+          <t>610944441</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4297,7 +5026,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -4391,12 +5120,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104142320_M_S_M_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>610889067</t>
+          <t>610944442</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4421,7 +5150,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -4453,12 +5182,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104074580_M_S_M_0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>610886172</t>
+          <t>610944440</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4483,7 +5212,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4515,12 +5244,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104054645_M_S_M_0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>610885431</t>
+          <t>610944445</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4545,7 +5274,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4577,12 +5306,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>104045668_M_S_M_0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>610885171</t>
+          <t>610944443</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4607,7 +5336,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4639,12 +5368,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>103950019_M_S_M_0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>610881354</t>
+          <t>610944447</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4669,7 +5398,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -4701,12 +5430,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>103950019_M_S_M_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>610881354</t>
+          <t>610944447</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4731,7 +5460,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -4897,12 +5626,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Room Only</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>396045866</t>
+          <t>396046522</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4932,12 +5661,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Jungleluxe G22</t>
+          <t>K8</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>324864474</t>
+          <t>324865032</t>
         </is>
       </c>
     </row>
@@ -4964,7 +5693,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>396045951</t>
+          <t>396046387</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4994,12 +5723,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Jungleluxe G22</t>
+          <t>F14</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>324864466</t>
+          <t>324864992</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5755,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>396045823</t>
+          <t>396045866</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5056,12 +5785,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Jungleluxe G22</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>324864453</t>
+          <t>324864474</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5812,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>396045805</t>
+          <t>396045951</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5118,12 +5847,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Jungleluxe G22</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>324864435</t>
+          <t>324864466</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5879,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>396045798</t>
+          <t>396045823</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5180,12 +5909,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Jungleluxe G22</t>
+          <t>324864453</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>324864432</t>
+          <t>324864453</t>
         </is>
       </c>
     </row>
@@ -5207,12 +5936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>396016085</t>
+          <t>396045805</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5242,12 +5971,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Three Waves A19</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>324860435</t>
+          <t>324864435</t>
         </is>
       </c>
     </row>
@@ -5269,12 +5998,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>396016112</t>
+          <t>396045798</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5304,12 +6033,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Three Waves A19</t>
+          <t>Casa Papaya N1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>324860431</t>
+          <t>324864432</t>
         </is>
       </c>
     </row>
@@ -5331,12 +6060,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>396015846</t>
+          <t>396016085</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5346,7 +6075,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5366,12 +6095,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Three Waves A19</t>
+          <t>B17</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>324860404</t>
+          <t>324860435</t>
         </is>
       </c>
     </row>
@@ -5393,12 +6122,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>396015845</t>
+          <t>396016112</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5428,12 +6157,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Three Waves A19</t>
+          <t>Three waves B-A20</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>324860404</t>
+          <t>324860431</t>
         </is>
       </c>
     </row>
@@ -5455,12 +6184,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Standard Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>395058705</t>
+          <t>396015846</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5490,12 +6219,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Casa Luum H23</t>
+          <t>Three waves A19</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>324605312</t>
+          <t>324860404</t>
         </is>
       </c>
     </row>
@@ -5517,12 +6246,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Standard Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>395058704</t>
+          <t>396015845</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5552,12 +6281,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Casa Luum H23</t>
+          <t>Three waves A19</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>324605312</t>
+          <t>324860404</t>
         </is>
       </c>
     </row>
@@ -5579,12 +6308,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Standard Rate Plan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>394876254</t>
+          <t>395058705</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5594,7 +6323,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5614,12 +6343,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Casa Sofia F13</t>
+          <t>Casa Luum H23</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>324484283</t>
+          <t>324605312</t>
         </is>
       </c>
     </row>
@@ -5641,12 +6370,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Standard Rate Plan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>394876239</t>
+          <t>395058704</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5676,12 +6405,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Jungleluxe G22</t>
+          <t>Casa Luum H23</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>324476706</t>
+          <t>324605312</t>
         </is>
       </c>
     </row>
@@ -5708,7 +6437,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>394876238</t>
+          <t>394876254</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5738,12 +6467,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Villa Completa Essentially</t>
+          <t>Casa Sofia F13</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>324425489</t>
+          <t>324484283</t>
         </is>
       </c>
     </row>
@@ -5765,12 +6494,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>396046020</t>
+          <t>394876239</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5800,12 +6529,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Jungleluxe G21</t>
+          <t>Jungleluxe G22</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>324425475</t>
+          <t>324476706</t>
         </is>
       </c>
     </row>
@@ -5832,7 +6561,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>394876241</t>
+          <t>394876238</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5862,12 +6591,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Jungleluxe I26</t>
+          <t>Villa Completa Essentially</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>324425471</t>
+          <t>324425489</t>
         </is>
       </c>
     </row>
@@ -5889,12 +6618,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>394876236</t>
+          <t>396046020</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5924,12 +6653,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Mariposa I25</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>324425463</t>
+          <t>324425475</t>
         </is>
       </c>
     </row>
@@ -5956,7 +6685,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>394876235</t>
+          <t>394876241</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5986,12 +6715,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Maca M4</t>
+          <t>Jungleluxe I26</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>324425455</t>
+          <t>324425471</t>
         </is>
       </c>
     </row>
@@ -6018,7 +6747,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>394876255</t>
+          <t>394876236</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6048,29 +6777,29 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Maca Essentially</t>
+          <t>Mariposa I25</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>324425413</t>
+          <t>324425463</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>103556862</t>
+          <t>103465399</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>103556862_M_S_M_0</t>
+          <t>103465399_M_S_M_0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>610890149</t>
+          <t>610890157</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6080,7 +6809,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>394853885</t>
+          <t>394876235</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6110,29 +6839,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Exclusive Apartment</t>
+          <t>Maca M4</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>324455096</t>
+          <t>324425455</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>102627849</t>
+          <t>103465399</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Agency_M_042224_0</t>
+          <t>103465399_M_S_M_0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>610892050</t>
+          <t>610890157</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6142,7 +6871,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>394583027</t>
+          <t>394876255</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6172,39 +6901,39 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Comfort Villa</t>
+          <t>Maca Essentially</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>324291270</t>
+          <t>324425413</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>102660614</t>
+          <t>103556862</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>102660614_M_S_M_0</t>
+          <t>103556862_M_S_M_0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>610890155</t>
+          <t>610890149</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan non-refundable</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>395645611</t>
+          <t>394853885</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6214,7 +6943,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6234,39 +6963,39 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Family House</t>
+          <t>Exclusive Apartment</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>324300438</t>
+          <t>324455096</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>102660614</t>
+          <t>102627849</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>102660614_M_S_M_0</t>
+          <t>Agency_M_042224_0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>610890155</t>
+          <t>610892050</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan non-refundable</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>395645567</t>
+          <t>394583027</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6296,12 +7025,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Family House</t>
+          <t>Comfort Villa</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>324300438</t>
+          <t>324291270</t>
         </is>
       </c>
     </row>
@@ -6323,12 +7052,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Standard Rate Plan non-refundable</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>395631208</t>
+          <t>395645611</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6385,12 +7114,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Standard Rate Plan non-refundable</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>394133145</t>
+          <t>395645567</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6432,27 +7161,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>102660614</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>102379022_M_S_M_0</t>
+          <t>102660614_M_S_M_0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>610890148</t>
+          <t>610890155</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Guesty Package Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>395183728</t>
+          <t>395631208</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6482,39 +7211,39 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Coco 101</t>
+          <t>Family House</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>324233619</t>
+          <t>324300438</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>102379022</t>
+          <t>102660614</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>102379022_M_S_M_0</t>
+          <t>102660614_M_S_M_0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>610890148</t>
+          <t>610890155</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Guesty Non Refundable Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>395183719</t>
+          <t>394133145</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6544,12 +7273,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Coco 101</t>
+          <t>Family House</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>324233619</t>
+          <t>324300438</t>
         </is>
       </c>
     </row>
@@ -6571,12 +7300,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Package Rate Plan</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>393989090</t>
+          <t>395183728</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6586,7 +7315,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -6633,12 +7362,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Guesty Package Rate Plan</t>
+          <t>Guesty Non Refundable Rate Plan</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>395183730</t>
+          <t>395183719</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6648,7 +7377,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -6668,12 +7397,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Papaya 102</t>
+          <t>Coco 101</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>324233549</t>
+          <t>324233619</t>
         </is>
       </c>
     </row>
@@ -6695,12 +7424,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Guesty Non Refundable Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>395183720</t>
+          <t>393989090</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6730,12 +7459,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Papaya 102</t>
+          <t>Coco 101</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>324233549</t>
+          <t>324233619</t>
         </is>
       </c>
     </row>
@@ -6757,12 +7486,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Package Rate Plan</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>393989088</t>
+          <t>395183730</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6772,7 +7501,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -6819,12 +7548,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Guesty Package Rate Plan</t>
+          <t>Guesty Non Refundable Rate Plan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>395183731</t>
+          <t>395183720</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6834,7 +7563,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -6854,12 +7583,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Mango 102</t>
+          <t>Papaya 102</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>324233532</t>
+          <t>324233549</t>
         </is>
       </c>
     </row>
@@ -6881,12 +7610,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Guesty Non Refundable Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>395183718</t>
+          <t>393989088</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6916,12 +7645,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Mango 102</t>
+          <t>Papaya 102</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>324233532</t>
+          <t>324233549</t>
         </is>
       </c>
     </row>
@@ -6943,12 +7672,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Package Rate Plan</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>393989089</t>
+          <t>395183731</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6958,7 +7687,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -7005,12 +7734,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Guesty Package Rate Plan</t>
+          <t>Guesty Non Refundable Rate Plan</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>395183729</t>
+          <t>395183718</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7020,7 +7749,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -7040,12 +7769,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Coco 301</t>
+          <t>Mango 102</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>324233095</t>
+          <t>324233532</t>
         </is>
       </c>
     </row>
@@ -7067,12 +7796,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Guesty Non Refundable Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>395183717</t>
+          <t>393989089</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7102,12 +7831,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Coco 301</t>
+          <t>Mango 102</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>324233095</t>
+          <t>324233532</t>
         </is>
       </c>
     </row>
@@ -7129,12 +7858,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Package Rate Plan</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>393989091</t>
+          <t>395183729</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7144,7 +7873,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -7191,12 +7920,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Guesty Package Rate Plan</t>
+          <t>Guesty Non Refundable Rate Plan</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>395183728</t>
+          <t>395183717</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7206,7 +7935,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -7226,12 +7955,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Coco 101</t>
+          <t>Coco 301</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>324233619</t>
+          <t>324233095</t>
         </is>
       </c>
     </row>
@@ -7253,12 +7982,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Guesty Non Refundable Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>395183719</t>
+          <t>393989091</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7288,12 +8017,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Coco 101</t>
+          <t>Coco 301</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>324233619</t>
+          <t>324233095</t>
         </is>
       </c>
     </row>
@@ -7315,12 +8044,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Package Rate Plan</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>393989090</t>
+          <t>395183728</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7330,7 +8059,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7377,12 +8106,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Guesty Package Rate Plan</t>
+          <t>Guesty Non Refundable Rate Plan</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>395183730</t>
+          <t>395183719</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7392,7 +8121,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7412,12 +8141,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Papaya 102</t>
+          <t>Coco 101</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>324233549</t>
+          <t>324233619</t>
         </is>
       </c>
     </row>
@@ -7439,12 +8168,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Guesty Non Refundable Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>395183720</t>
+          <t>393989090</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7474,12 +8203,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Papaya 102</t>
+          <t>Coco 101</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>324233549</t>
+          <t>324233619</t>
         </is>
       </c>
     </row>
@@ -7501,12 +8230,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Package Rate Plan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>393989088</t>
+          <t>395183730</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7516,7 +8245,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7563,12 +8292,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Guesty Package Rate Plan</t>
+          <t>Guesty Non Refundable Rate Plan</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>395183731</t>
+          <t>395183720</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7578,7 +8307,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -7598,12 +8327,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Mango 102</t>
+          <t>Papaya 102</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>324233532</t>
+          <t>324233549</t>
         </is>
       </c>
     </row>
@@ -7625,12 +8354,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Guesty Non Refundable Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>395183718</t>
+          <t>393989088</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7660,12 +8389,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Mango 102</t>
+          <t>Papaya 102</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>324233532</t>
+          <t>324233549</t>
         </is>
       </c>
     </row>
@@ -7687,12 +8416,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Package Rate Plan</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>393989089</t>
+          <t>395183731</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7702,7 +8431,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -7749,12 +8478,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Guesty Package Rate Plan</t>
+          <t>Guesty Non Refundable Rate Plan</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>395183729</t>
+          <t>395183718</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7764,7 +8493,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7784,12 +8513,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Coco 301</t>
+          <t>Mango 102</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>324233095</t>
+          <t>324233532</t>
         </is>
       </c>
     </row>
@@ -7811,12 +8540,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Guesty Non Refundable Rate Plan</t>
+          <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>395183717</t>
+          <t>393989089</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7846,12 +8575,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Coco 301</t>
+          <t>Mango 102</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>324233095</t>
+          <t>324233532</t>
         </is>
       </c>
     </row>
@@ -7873,12 +8602,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Package Rate Plan</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>393989091</t>
+          <t>395183729</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7888,7 +8617,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7920,27 +8649,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>102017604</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>102017604_M_S_M_0</t>
+          <t>102379022_M_S_M_0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>610890150</t>
+          <t>610890148</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Guesty Standard Rate Plan</t>
+          <t>Guesty Non Refundable Rate Plan</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>393793623</t>
+          <t>395183717</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7970,29 +8699,29 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Luxury Penthouse</t>
+          <t>Coco 301</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>324139774</t>
+          <t>324233095</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>97052812</t>
+          <t>102379022</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023_EC_18</t>
+          <t>102379022_M_S_M_0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>610678397</t>
+          <t>610890148</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -8002,7 +8731,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>394258725</t>
+          <t>393989091</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -8032,29 +8761,29 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Coco 301</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>322890335</t>
+          <t>324233095</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>97052812</t>
+          <t>102017604</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023_EC_18</t>
+          <t>102017604_M_S_M_0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>610678397</t>
+          <t>610890150</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8064,7 +8793,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>394258726</t>
+          <t>393793623</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -8094,12 +8823,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Luxury Apartment</t>
+          <t>Luxury Penthouse</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>322890334</t>
+          <t>324139774</t>
         </is>
       </c>
     </row>
@@ -8126,7 +8855,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>394258755</t>
+          <t>394258725</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -8156,12 +8885,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>322890325</t>
+          <t>322890335</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8917,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>394258734</t>
+          <t>394258726</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8218,12 +8947,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Luxury Apartment</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>322890323</t>
+          <t>322890334</t>
         </is>
       </c>
     </row>
@@ -8250,7 +8979,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>394258736</t>
+          <t>394258755</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8280,12 +9009,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Luxury Suite</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>322890319</t>
+          <t>322890325</t>
         </is>
       </c>
     </row>
@@ -8312,7 +9041,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>394258743</t>
+          <t>394258734</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8342,29 +9071,29 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Luxury Suite</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>322887430</t>
+          <t>322890323</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>87410857</t>
+          <t>97052812</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Agency_M_042224_0</t>
+          <t>2023_EC_18</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>610892047</t>
+          <t>610678397</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8374,7 +9103,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>387583349</t>
+          <t>394258736</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8404,29 +9133,29 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Grand Room</t>
+          <t>Luxury Suite</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>321024058</t>
+          <t>322890319</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>79713237</t>
+          <t>97052812</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>79713237_M_S_M_0</t>
+          <t>2023_EC_18</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>610890153</t>
+          <t>610678397</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -8436,7 +9165,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>394258724</t>
+          <t>394258743</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8466,72 +9195,196 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Royal Apartment</t>
+          <t>Luxury Suite</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>317069965</t>
+          <t>322887430</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>87410857</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Agency_M_042224_0</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>610892047</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Guesty Standard Rate Plan</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>387583349</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>PerDayPricing</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Grand Room</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>321024058</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>79713237</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>79713237_M_S_M_0</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>610890153</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Guesty Standard Rate Plan</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>394258724</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>PerDayPricing</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Royal Apartment</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>317069965</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>78379166</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>78379166_M_S_M_0</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>610890159</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Guesty Standard Rate Plan</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>386447163</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>PerDayPricing</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>Deluxe Apartment</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>316634631</t>
         </is>
